--- a/inputs/list_of_teams.xlsx
+++ b/inputs/list_of_teams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AB9C5A-8675-8D48-94C4-F369434734E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D106D-B2D6-2F44-8894-E775CFB302FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="2060" windowWidth="27860" windowHeight="16940" xr2:uid="{2114AE23-4723-3F48-88AE-F53CC59B0CBE}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="208">
   <si>
     <t>Carbondale A (IL)</t>
   </si>
@@ -693,6 +693,12 @@
   </si>
   <si>
     <t>Code (max 4 characters)</t>
+  </si>
+  <si>
+    <t>HNA</t>
+  </si>
+  <si>
+    <t>HNB</t>
   </si>
 </sst>
 </file>
@@ -1066,8 +1072,8 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1599,7 +1605,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
         <v>19</v>
@@ -1613,7 +1619,7 @@
         <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s">
         <v>100</v>
